--- a/NddcPayroll.Web/wwwroot/Jan-Coop-Upload.xlsx
+++ b/NddcPayroll.Web/wwwroot/Jan-Coop-Upload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d.tolofari\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151A5C79-01C1-4AB6-9D8B-568A2AA01F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E93742-F12A-4203-83A7-217DD624D8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{E4E95945-BFDF-4A59-8C19-02D6E56B146D}"/>
   </bookViews>
@@ -404,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F9226D4-2FE2-43B8-B97A-C521372DFA99}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -468,7 +468,7 @@
         <v>519</v>
       </c>
       <c r="B7" s="1">
-        <v>21023.882039874999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -489,15 +489,15 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
-        <v>2039</v>
+        <v>2441</v>
       </c>
       <c r="B10" s="1">
-        <v>24373.531181443999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
-        <v>2441</v>
+        <v>2515</v>
       </c>
       <c r="B11" s="1">
         <v>25000</v>
@@ -505,7 +505,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
-        <v>2515</v>
+        <v>2522</v>
       </c>
       <c r="B12" s="1">
         <v>25000</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
-        <v>2522</v>
+        <v>2915</v>
       </c>
       <c r="B13" s="1">
         <v>25000</v>
@@ -521,7 +521,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
-        <v>2915</v>
+        <v>2918</v>
       </c>
       <c r="B14" s="1">
         <v>25000</v>
@@ -529,55 +529,55 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
-        <v>2918</v>
+        <v>2029</v>
       </c>
       <c r="B15" s="1">
-        <v>25000</v>
+        <v>26372.550815005001</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
-        <v>2029</v>
+        <v>115</v>
       </c>
       <c r="B16" s="1">
-        <v>26372.550815005001</v>
+        <v>26982.914955249998</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
-        <v>115</v>
+        <v>1849</v>
       </c>
       <c r="B17" s="1">
-        <v>26982.914955249998</v>
+        <v>28762.528177175998</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
-        <v>1849</v>
+        <v>3242</v>
       </c>
       <c r="B18" s="1">
-        <v>28762.528177175998</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
-        <v>3242</v>
+        <v>1888</v>
       </c>
       <c r="B19" s="1">
-        <v>30000</v>
+        <v>33933.307999999997</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
-        <v>1888</v>
+        <v>2863</v>
       </c>
       <c r="B20" s="1">
-        <v>33933.307999999997</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
-        <v>2863</v>
+        <v>3079</v>
       </c>
       <c r="B21" s="1">
         <v>35000</v>
@@ -585,7 +585,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
-        <v>3079</v>
+        <v>3083</v>
       </c>
       <c r="B22" s="1">
         <v>35000</v>
@@ -593,105 +593,97 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
-        <v>3083</v>
+        <v>510</v>
       </c>
       <c r="B23" s="1">
-        <v>35000</v>
+        <v>35166.629999999997</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
-        <v>510</v>
+        <v>1822</v>
       </c>
       <c r="B24" s="1">
-        <v>35166.629999999997</v>
+        <v>35208.287499999999</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
-        <v>1822</v>
+        <v>1839</v>
       </c>
       <c r="B25" s="1">
-        <v>35208.287499999999</v>
+        <v>37261.132866065003</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
-        <v>1839</v>
+        <v>1827</v>
       </c>
       <c r="B26" s="1">
-        <v>37261.132866065003</v>
+        <v>38320.858655953998</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
-        <v>1827</v>
+        <v>1449</v>
       </c>
       <c r="B27" s="1">
-        <v>38320.858655953998</v>
+        <v>39536.858778374</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
-        <v>1449</v>
+        <v>1439</v>
       </c>
       <c r="B28" s="1">
-        <v>39536.858778374</v>
+        <v>39790.099819417002</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
-        <v>1439</v>
+        <v>1403</v>
       </c>
       <c r="B29" s="1">
-        <v>39790.099819417002</v>
+        <v>40208.287499999999</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
-        <v>1403</v>
+        <v>2021</v>
       </c>
       <c r="B30" s="1">
-        <v>40208.287499999999</v>
+        <v>43652.188844459997</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
-        <v>2021</v>
+        <v>1842</v>
       </c>
       <c r="B31" s="1">
-        <v>43652.188844459997</v>
+        <v>43704.998516590997</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
-        <v>1842</v>
+        <v>2110</v>
       </c>
       <c r="B32" s="1">
-        <v>43704.998516590997</v>
+        <v>44838.118820071002</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="2">
-        <v>2110</v>
+        <v>3060</v>
       </c>
       <c r="B33" s="1">
-        <v>44838.118820071002</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="2">
-        <v>3060</v>
+        <v>3063</v>
       </c>
       <c r="B34" s="1">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A35" s="2">
-        <v>3063</v>
-      </c>
-      <c r="B35" s="1">
         <v>47000</v>
       </c>
     </row>

--- a/NddcPayroll.Web/wwwroot/Jan-Coop-Upload.xlsx
+++ b/NddcPayroll.Web/wwwroot/Jan-Coop-Upload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d.tolofari\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E93742-F12A-4203-83A7-217DD624D8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C737303-FF32-4E3F-AED9-4B27BF9C1F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{E4E95945-BFDF-4A59-8C19-02D6E56B146D}"/>
   </bookViews>
@@ -404,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F9226D4-2FE2-43B8-B97A-C521372DFA99}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -481,23 +481,23 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
-        <v>1927</v>
+        <v>2441</v>
       </c>
       <c r="B9" s="1">
-        <v>24119.281020941002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
-        <v>2441</v>
+        <v>2515</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
-        <v>2515</v>
+        <v>2522</v>
       </c>
       <c r="B11" s="1">
         <v>25000</v>
@@ -505,7 +505,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
-        <v>2522</v>
+        <v>2915</v>
       </c>
       <c r="B12" s="1">
         <v>25000</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
-        <v>2915</v>
+        <v>2918</v>
       </c>
       <c r="B13" s="1">
         <v>25000</v>
@@ -521,55 +521,55 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
-        <v>2918</v>
+        <v>2029</v>
       </c>
       <c r="B14" s="1">
-        <v>25000</v>
+        <v>26372.550815005001</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
-        <v>2029</v>
+        <v>115</v>
       </c>
       <c r="B15" s="1">
-        <v>26372.550815005001</v>
+        <v>26982.914955249998</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
-        <v>115</v>
+        <v>1849</v>
       </c>
       <c r="B16" s="1">
-        <v>26982.914955249998</v>
+        <v>28762.528177175998</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
-        <v>1849</v>
+        <v>3242</v>
       </c>
       <c r="B17" s="1">
-        <v>28762.528177175998</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
-        <v>3242</v>
+        <v>1888</v>
       </c>
       <c r="B18" s="1">
-        <v>30000</v>
+        <v>33933.307999999997</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
-        <v>1888</v>
+        <v>2863</v>
       </c>
       <c r="B19" s="1">
-        <v>33933.307999999997</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
-        <v>2863</v>
+        <v>3079</v>
       </c>
       <c r="B20" s="1">
         <v>35000</v>
@@ -577,7 +577,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
-        <v>3079</v>
+        <v>3083</v>
       </c>
       <c r="B21" s="1">
         <v>35000</v>
@@ -585,105 +585,97 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
-        <v>3083</v>
+        <v>510</v>
       </c>
       <c r="B22" s="1">
-        <v>35000</v>
+        <v>35166.629999999997</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
-        <v>510</v>
+        <v>1822</v>
       </c>
       <c r="B23" s="1">
-        <v>35166.629999999997</v>
+        <v>35208.287499999999</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
-        <v>1822</v>
+        <v>1839</v>
       </c>
       <c r="B24" s="1">
-        <v>35208.287499999999</v>
+        <v>37261.132866065003</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
-        <v>1839</v>
+        <v>1827</v>
       </c>
       <c r="B25" s="1">
-        <v>37261.132866065003</v>
+        <v>38320.858655953998</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
-        <v>1827</v>
+        <v>1449</v>
       </c>
       <c r="B26" s="1">
-        <v>38320.858655953998</v>
+        <v>39536.858778374</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
-        <v>1449</v>
+        <v>1439</v>
       </c>
       <c r="B27" s="1">
-        <v>39536.858778374</v>
+        <v>39790.099819417002</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
-        <v>1439</v>
+        <v>1403</v>
       </c>
       <c r="B28" s="1">
-        <v>39790.099819417002</v>
+        <v>40208.287499999999</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
-        <v>1403</v>
+        <v>2021</v>
       </c>
       <c r="B29" s="1">
-        <v>40208.287499999999</v>
+        <v>43652.188844459997</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
-        <v>2021</v>
+        <v>1842</v>
       </c>
       <c r="B30" s="1">
-        <v>43652.188844459997</v>
+        <v>43704.998516590997</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
-        <v>1842</v>
+        <v>2110</v>
       </c>
       <c r="B31" s="1">
-        <v>43704.998516590997</v>
+        <v>44838.118820071002</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
-        <v>2110</v>
+        <v>3060</v>
       </c>
       <c r="B32" s="1">
-        <v>44838.118820071002</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="2">
-        <v>3060</v>
+        <v>3063</v>
       </c>
       <c r="B33" s="1">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A34" s="2">
-        <v>3063</v>
-      </c>
-      <c r="B34" s="1">
         <v>47000</v>
       </c>
     </row>

--- a/NddcPayroll.Web/wwwroot/Jan-Coop-Upload.xlsx
+++ b/NddcPayroll.Web/wwwroot/Jan-Coop-Upload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d.tolofari\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C737303-FF32-4E3F-AED9-4B27BF9C1F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E57898F-703C-437A-BB1D-335D35ABA1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{E4E95945-BFDF-4A59-8C19-02D6E56B146D}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E4E95945-BFDF-4A59-8C19-02D6E56B146D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -407,7 +407,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -468,7 +468,7 @@
         <v>519</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -484,7 +484,7 @@
         <v>2441</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
